--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_003.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_003.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire’s extent of potential operational damage to plant equipment</t>
-  </si>
-  <si>
-    <t>(295021AK2.03) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) RHR/shutdown cooling</t>
-  </si>
-  <si>
-    <t>(295026EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295024EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Containment venting (Mark III)</t>
-  </si>
-  <si>
-    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+    <t>(295016AK2.10) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295031EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Steam cooling</t>
+  </si>
+  <si>
+    <t>(295004AA1.01) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
+  </si>
+  <si>
+    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295038EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
+  </si>
+  <si>
+    <t>(295037EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RMCS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK2.07) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295025EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RCIC operation </t>
+  </si>
+  <si>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295023AK2.11) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Alternate fuel pool makeup systems</t>
+  </si>
+  <si>
+    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
+  </si>
+  <si>
+    <t>(295012AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Increased drywell cooling</t>
+  </si>
+  <si>
+    <t>(295017AA1.02) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Off-gas system</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EK2.06) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) SRVs and discharge piping</t>
+  </si>
+  <si>
+    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(218000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RHR/LPCI system</t>
+  </si>
+  <si>
+    <t>(203000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
+  </si>
+  <si>
+    <t>(223002K4.05) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Single failures will not impair the function ability of the system</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(300000K3.22) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Offgas system</t>
+  </si>
+  <si>
+    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(215003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(209002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(262001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System frequency</t>
+  </si>
+  <si>
+    <t>(239002K4.10) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Methods for determining position of SRV</t>
+  </si>
+  <si>
+    <t>(217000K2.01) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291002K1.06) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Temperature/pressure compensation requirements</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(259002A2.01) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of main steam flow inputs</t>
+  </si>
+  <si>
+    <t>(400000K3.15) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4) (BWR 3, 4)</t>
+  </si>
+  <si>
+    <t>(261000A4.09) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SGTS valves/dampers</t>
+  </si>
+  <si>
+    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
+  </si>
+  <si>
+    <t>(218000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(203000K6.17) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Suppression pool suction strainer clogging</t>
+  </si>
+  <si>
+    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(256000K3.12) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HPCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) </t>
+  </si>
+  <si>
+    <t>(288000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Heating, ventilation, and air conditioning system cooling water systems</t>
+  </si>
+  <si>
+    <t>(223001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Combustible gas mixing</t>
+  </si>
+  <si>
+    <t>(233000A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(234000K4.07) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Hoist overload or underload protection</t>
+  </si>
+  <si>
+    <t>(259001K2.01) (SF2 FWS) FEEDWATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor feedwater pump(s): motor-driven-only</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000A3.03) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System isolations</t>
+  </si>
+  <si>
+    <t>(290001A2.01) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Personnel airlock failure</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(293006K1.07) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) State the purpose of a pump</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
   </si>
   <si>
-    <t>(295030EK2.10) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295005AK2.04) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295025EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295001AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Core flow response</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295034EK2.04) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295036EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Systems for emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295008AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
-  </si>
-  <si>
-    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
-  </si>
-  <si>
-    <t>(262002K3.01) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(263000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Station blackout</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(223002K1.27) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant pneumatic systems</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(205000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Temperatures</t>
-  </si>
-  <si>
-    <t>(259002A4.08) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manually initiate FWCI</t>
-  </si>
-  <si>
-    <t>(300000K4.03) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(239002A2.03) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open SRV</t>
-  </si>
-  <si>
-    <t>(510000K3.14) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
-  </si>
-  <si>
-    <t>(212000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(215003K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Gamma discrimination</t>
-  </si>
-  <si>
-    <t>(264000K2.08) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Cooling water pumps</t>
-  </si>
-  <si>
-    <t>(400000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291001K1.12) VALVES (CFR: 41.3) Reason for using a globe valve versus a gate valve for throttling</t>
-  </si>
-  <si>
-    <t>(261000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment pressure</t>
-  </si>
-  <si>
-    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
-  </si>
-  <si>
-    <t>(209002K4.07) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override of reactor water level interlock</t>
-  </si>
-  <si>
-    <t>(211000A2.03) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power failures</t>
-  </si>
-  <si>
-    <t>(262002K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
-  </si>
-  <si>
-    <t>(263000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
-  </si>
-  <si>
-    <t>(204000K4.10) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay heat removal</t>
-  </si>
-  <si>
-    <t>(234000A2.11) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Mechanically bound fuel assembly</t>
-  </si>
-  <si>
-    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
-  </si>
-  <si>
-    <t>(256000A3.02) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) Pump starts</t>
-  </si>
-  <si>
-    <t>(259001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater pump motor ventilation: motor-driven only</t>
-  </si>
-  <si>
-    <t>(241000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Reactor power vs. reactor pressure</t>
-  </si>
-  <si>
-    <t>(290002K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(272000K1.25) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby gas treatment</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202001A1.21) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) VFD current, power, and voltage</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292008K1.26) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain reactor power response to a decrease in core flow</t>
-  </si>
-  <si>
-    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
-  </si>
-  <si>
-    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
-  </si>
-  <si>
-    <t>(293008K1.06) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define a natural convection heat transfer</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295020AA2.06) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Cause of isolation</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
-  </si>
-  <si>
-    <t>(262001A2.01) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine/generator trip</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(223002A2.09) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(205000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC power</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(239003A2.13) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Standby gas treatment system malfunction</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(510000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water level</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(216000A2.06) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of power supply </t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(230000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295038</t>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295035</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295008</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>202002</t>
   </si>
   <si>
     <t>230000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>201005</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1531,7 +1531,7 @@
         <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1548,7 +1548,7 @@
         <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D43" t="s">
         <v>113</v>
@@ -1701,7 +1701,7 @@
         <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
